--- a/templates/QA-Automation/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/QA-Automation/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>API Mode</t>
   </si>
@@ -394,6 +394,33 @@
   </si>
   <si>
     <t>RMA-YTTY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-001</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-002</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6kAAE</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6lAAE</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6mAAE</t>
+  </si>
+  <si>
+    <t>RMA-MO6T-1-3</t>
   </si>
 </sst>
 </file>
@@ -403,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +450,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -793,7 +892,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -891,11 +990,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -957,8 +1074,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1826,12 +1955,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.6015625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.16015625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.09765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.12890625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1881,10 +2010,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1893,7 +2022,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1910,10 +2039,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1922,7 +2051,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1939,10 +2068,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1951,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/templates/QA-Automation/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/QA-Automation/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>API Mode</t>
   </si>
@@ -421,6 +421,33 @@
   </si>
   <si>
     <t>RMA-MO6T-1-3</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-001</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-002</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBvAAM</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBwAAM</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBxAAM</t>
+  </si>
+  <si>
+    <t>RMA-O9J6-1-3</t>
   </si>
 </sst>
 </file>
@@ -430,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +477,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -892,7 +991,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1107,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1086,8 +1203,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="86" fillId="0" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1955,12 +2084,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.6015625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.16015625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.12890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.83203125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2010,10 +2139,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2022,7 +2151,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2039,10 +2168,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2051,7 +2180,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2068,10 +2197,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2080,7 +2209,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
